--- a/municipal/ENG/Demography/Number of registered divorces/bolnisi.xlsx
+++ b/municipal/ENG/Demography/Number of registered divorces/bolnisi.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\დემოგრაფია\Tamunas cxrilebi\inglisuri\cx 21 - eng\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\demo\demo\ქორწინება, განქორწინება 2022\რეგისრერებულ განქორწინებულთა რაოდენობა საქალაქო სასოფლო ქარ. EN\Number of registered divorces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA9AE35-3BCC-4237-B105-BF13927066AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C22E52-32EA-4DA5-B934-1A43EDA4C389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14115" yWindow="705" windowWidth="12390" windowHeight="9105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="10245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1" iterateCount="1000" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +46,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +100,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -115,7 +121,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -249,6 +255,19 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -262,7 +281,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -270,9 +289,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -280,7 +296,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -288,7 +303,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -296,7 +310,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -322,6 +335,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -329,7 +358,18 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal_Mosaxleoba na 1.1 raionebis mixedvit" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -605,29 +645,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="26" customWidth="1"/>
-    <col min="2" max="13" width="8.7109375" style="23" customWidth="1"/>
-    <col min="14" max="14" width="5.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="23"/>
+    <col min="1" max="1" width="22.28515625" style="22" customWidth="1"/>
+    <col min="2" max="15" width="8.7109375" style="19" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:15" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
+    <row r="2" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13"/>
     </row>
-    <row r="3" spans="1:13" s="18" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+    <row r="3" spans="1:15" s="14" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
       <c r="B4" s="1">
         <v>2010</v>
       </c>
@@ -661,137 +702,166 @@
       <c r="L4" s="2">
         <v>2020</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <v>2021</v>
       </c>
+      <c r="N4" s="27">
+        <v>2022</v>
+      </c>
+      <c r="O4" s="23">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+    <row r="5" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>41</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>63</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>62</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>92</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>109</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>126</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>114</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>101</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>112</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <v>130</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>61</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="5">
         <v>118</v>
       </c>
+      <c r="N5" s="5">
+        <v>136</v>
+      </c>
+      <c r="O5" s="24">
+        <v>145</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>14</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <v>36</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <v>22</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>37</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="8">
         <v>33</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="8">
         <v>40</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="8">
         <v>39</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="8">
         <v>33</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="8">
         <v>37</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="8">
         <v>54</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="8">
         <v>18</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="8">
         <v>50</v>
       </c>
+      <c r="N6" s="28">
+        <v>42</v>
+      </c>
+      <c r="O6" s="25">
+        <v>43</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="9">
         <v>27</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="10">
         <v>27</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="10">
         <v>40</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="10">
         <v>55</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="11">
         <v>76</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="11">
         <v>86</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="11">
         <v>75</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="11">
         <v>68</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="11">
         <v>75</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="11">
         <v>76</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="11">
         <v>43</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="11">
         <v>68</v>
       </c>
+      <c r="N7" s="11">
+        <v>94</v>
+      </c>
+      <c r="O7" s="26">
+        <v>102</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="21"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="O5:O7">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
